--- a/Daily/Ljung_Box/First Difference/sony.xlsx
+++ b/Daily/Ljung_Box/First Difference/sony.xlsx
@@ -396,7 +396,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3.723852179745709E-10</v>
+        <v>0.008974185801257551</v>
+      </c>
+      <c r="C2">
+        <v>0.9245275574966632</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -404,7 +407,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.05576238757703447</v>
+        <v>0.03837535881703624</v>
+      </c>
+      <c r="C3">
+        <v>0.9809952323596843</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -412,10 +418,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>6.170936266877084</v>
+        <v>0.05421603454204994</v>
       </c>
       <c r="C4">
-        <v>0.01298658623395545</v>
+        <v>0.996696626625411</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -423,10 +429,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>6.892645727866632</v>
+        <v>1.049218666331778</v>
       </c>
       <c r="C5">
-        <v>0.03186258428746711</v>
+        <v>0.9022432372656191</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -434,10 +440,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>6.895415232776771</v>
+        <v>2.190555183553958</v>
       </c>
       <c r="C6">
-        <v>0.07530701535123961</v>
+        <v>0.8221990373939227</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -445,10 +451,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>6.942595364921508</v>
+        <v>2.438383853435237</v>
       </c>
       <c r="C7">
-        <v>0.1389530730663689</v>
+        <v>0.8752987569311045</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -456,10 +462,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>7.535753726616035</v>
+        <v>2.699874062729586</v>
       </c>
       <c r="C8">
-        <v>0.1837454544186262</v>
+        <v>0.911310055703625</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -467,10 +473,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>9.143561682729207</v>
+        <v>3.627670309459873</v>
       </c>
       <c r="C9">
-        <v>0.1656637882983058</v>
+        <v>0.8890584866721207</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -478,10 +484,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>13.8590941298653</v>
+        <v>4.487541019467686</v>
       </c>
       <c r="C10">
-        <v>0.05374501058699192</v>
+        <v>0.8765018145924869</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -489,10 +495,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>14.06093657222451</v>
+        <v>4.937576888929774</v>
       </c>
       <c r="C11">
-        <v>0.08019088860566281</v>
+        <v>0.8953087093509345</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -500,10 +506,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>14.26443746950516</v>
+        <v>4.951154476306912</v>
       </c>
       <c r="C12">
-        <v>0.1132247109734161</v>
+        <v>0.9335090317103678</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -511,10 +517,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>15.56874005087778</v>
+        <v>5.535998775421857</v>
       </c>
       <c r="C13">
-        <v>0.1126612199980881</v>
+        <v>0.9376454824723542</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -522,10 +528,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>18.07959277524041</v>
+        <v>5.882522182220931</v>
       </c>
       <c r="C14">
-        <v>0.07975205946269003</v>
+        <v>0.9503240712820267</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -533,10 +539,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>18.79493991458179</v>
+        <v>6.539773420545213</v>
       </c>
       <c r="C15">
-        <v>0.0935987789315269</v>
+        <v>0.9510020695752918</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -544,10 +550,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>19.21004339654278</v>
+        <v>6.786773247711007</v>
       </c>
       <c r="C16">
-        <v>0.1167338407893474</v>
+        <v>0.9632986621930255</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -555,10 +561,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>19.73821087911072</v>
+        <v>6.948913899744452</v>
       </c>
       <c r="C17">
-        <v>0.1386134485889667</v>
+        <v>0.9742332119141229</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -566,10 +572,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>20.73870243351769</v>
+        <v>7.033053242414175</v>
       </c>
       <c r="C18">
-        <v>0.1453876530950806</v>
+        <v>0.9831168196698203</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -577,10 +583,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>20.74727440463055</v>
+        <v>7.033176896860945</v>
       </c>
       <c r="C19">
-        <v>0.1884308950541738</v>
+        <v>0.9898435770987886</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -588,10 +594,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>20.74744701201235</v>
+        <v>7.198617808836231</v>
       </c>
       <c r="C20">
-        <v>0.2377912598297739</v>
+        <v>0.993076709258551</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -599,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>23.53795363198667</v>
+        <v>10.87806127125925</v>
       </c>
       <c r="C21">
-        <v>0.1707552816402428</v>
+        <v>0.9493236298987968</v>
       </c>
     </row>
   </sheetData>
